--- a/SlinSortOMP/ускор.xlsx
+++ b/SlinSortOMP/ускор.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5EC01E-6B4F-4764-A3C5-E573F08F2118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +19,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>кол-во потоков</t>
+  </si>
+  <si>
+    <t>кол-во элементов</t>
+  </si>
+  <si>
+    <t>время выполнения</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,11 +67,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +349,395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A7:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>1245</v>
+      </c>
+      <c r="F7">
+        <v>1245</v>
+      </c>
+      <c r="G7">
+        <v>1245</v>
+      </c>
+      <c r="H7">
+        <v>2000</v>
+      </c>
+      <c r="I7">
+        <v>2000</v>
+      </c>
+      <c r="J7">
+        <v>2000</v>
+      </c>
+      <c r="K7">
+        <v>10000</v>
+      </c>
+      <c r="L7">
+        <v>10000</v>
+      </c>
+      <c r="M7">
+        <v>10000</v>
+      </c>
+      <c r="N7">
+        <v>250000</v>
+      </c>
+      <c r="O7">
+        <v>250000</v>
+      </c>
+      <c r="P7">
+        <v>250000</v>
+      </c>
+      <c r="Q7">
+        <f>1000*1000</f>
+        <v>1000000</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:S7" si="0">1000*1000</f>
+        <v>1000000</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="T7">
+        <f>2100*2100</f>
+        <v>4410000</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:V7" si="1">2100*2100</f>
+        <v>4410000</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>4410000</v>
+      </c>
+      <c r="W7">
+        <f>3000*3000</f>
+        <v>9000000</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ref="X7:Y7" si="2">3000*3000</f>
+        <v>9000000</v>
+      </c>
+      <c r="Y7">
+        <f>3000*3000</f>
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:G8" si="3">C8</f>
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8" si="4">E8</f>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8" si="5">F8</f>
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8" si="6">G8</f>
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8" si="7">H8</f>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8" si="8">I8</f>
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8" si="9">J8</f>
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8" si="10">K8</f>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8" si="11">L8</f>
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8" si="12">M8</f>
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8" si="13">N8</f>
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8" si="14">O8</f>
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8" si="15">P8</f>
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8" si="16">Q8</f>
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8" si="17">R8</f>
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ref="V8" si="18">S8</f>
+        <v>8</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ref="W8" si="19">T8</f>
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <f t="shared" ref="X8" si="20">U8</f>
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" ref="Y8" si="21">V8</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <f>0.0000011197</f>
+        <v>1.1197000000000001E-6</v>
+      </c>
+      <c r="C9" s="1">
+        <f>0.0000067588</f>
+        <v>6.7588000000000004E-6</v>
+      </c>
+      <c r="D9" s="1">
+        <f>0.0000102359</f>
+        <v>1.02359E-5</v>
+      </c>
+      <c r="E9" s="1">
+        <f>0.0000357167</f>
+        <v>3.5716700000000003E-5</v>
+      </c>
+      <c r="F9" s="1">
+        <f>0.000008436</f>
+        <v>8.4360000000000002E-6</v>
+      </c>
+      <c r="G9" s="1">
+        <f>0.0000181023</f>
+        <v>1.8102300000000001E-5</v>
+      </c>
+      <c r="H9" s="1">
+        <f>0.0000696502</f>
+        <v>6.9650199999999999E-5</v>
+      </c>
+      <c r="I9" s="1">
+        <f>0.0000141821</f>
+        <v>1.4182099999999999E-5</v>
+      </c>
+      <c r="J9" s="1">
+        <f>0.0000127778</f>
+        <v>1.27778E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <f>0.000257953</f>
+        <v>2.57953E-4</v>
+      </c>
+      <c r="L9" s="1">
+        <f>0.0000107378</f>
+        <v>1.0737800000000001E-5</v>
+      </c>
+      <c r="M9" s="1">
+        <f>0.0000405576</f>
+        <v>4.0557599999999999E-5</v>
+      </c>
+      <c r="N9" s="1">
+        <f>0.00646269</f>
+        <v>6.4626900000000001E-3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>9.9282600000000004E-4</v>
+      </c>
+      <c r="P9" s="1">
+        <f>0.000983919</f>
+        <v>9.8391899999999998E-4</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>0.0261612</f>
+        <v>2.6161199999999999E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <f>0.00404578</f>
+        <v>4.0457799999999997E-3</v>
+      </c>
+      <c r="S9" s="1">
+        <f>0.00400239</f>
+        <v>4.0023899999999998E-3</v>
+      </c>
+      <c r="T9" s="1">
+        <f>0.124931</f>
+        <v>0.124931</v>
+      </c>
+      <c r="U9" s="1">
+        <f>0.00413846</f>
+        <v>4.1384600000000001E-3</v>
+      </c>
+      <c r="V9" s="1">
+        <f>0.0185167</f>
+        <v>1.8516700000000001E-2</v>
+      </c>
+      <c r="X9" s="1">
+        <f>0.0395918</f>
+        <v>3.9591800000000003E-2</v>
+      </c>
+      <c r="Y9" s="1">
+        <f>0.0386327</f>
+        <v>3.8632699999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>B9/C9</f>
+        <v>0.16566550275196781</v>
+      </c>
+      <c r="D10">
+        <f>C9/D9</f>
+        <v>0.66030344180775513</v>
+      </c>
+      <c r="F10">
+        <f>E9/F9</f>
+        <v>4.2338430535798963</v>
+      </c>
+      <c r="G10">
+        <f>F9/G9</f>
+        <v>0.46601813029283568</v>
+      </c>
+      <c r="I10">
+        <f>H9/I9</f>
+        <v>4.9111344582255096</v>
+      </c>
+      <c r="J10">
+        <f>I9/J9</f>
+        <v>1.1099015479973078</v>
+      </c>
+      <c r="L10">
+        <f>K9/L9</f>
+        <v>24.022891095010149</v>
+      </c>
+      <c r="M10">
+        <f>L9/M9</f>
+        <v>0.26475432471349392</v>
+      </c>
+      <c r="O10">
+        <f>N9/O9</f>
+        <v>6.5093883520375169</v>
+      </c>
+      <c r="P10">
+        <f>O9/P9</f>
+        <v>1.0090525744497261</v>
+      </c>
+      <c r="R10">
+        <f>Q9/R9</f>
+        <v>6.4662932734849647</v>
+      </c>
+      <c r="S10">
+        <f>R9/S9</f>
+        <v>1.0108410224890627</v>
+      </c>
+      <c r="U10">
+        <f>T9/U9</f>
+        <v>30.187799326319453</v>
+      </c>
+      <c r="V10">
+        <f>U9/V9</f>
+        <v>0.22349878758094044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>B9/D9</f>
+        <v>0.10938950165593647</v>
+      </c>
+      <c r="G11">
+        <f>E9/F9</f>
+        <v>4.2338430535798963</v>
+      </c>
+      <c r="J11">
+        <f>H9/J9</f>
+        <v>5.4508757376074133</v>
+      </c>
+      <c r="M11">
+        <f>K9/M9</f>
+        <v>6.3601643095252189</v>
+      </c>
+      <c r="P11">
+        <f>N9/P9</f>
+        <v>6.5683150747165167</v>
+      </c>
+      <c r="S11">
+        <f>Q9/S9</f>
+        <v>6.5363945042836908</v>
+      </c>
+      <c r="V11">
+        <f>T9/V9</f>
+        <v>6.7469365491691287</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>